--- a/接口定义.xlsx
+++ b/接口定义.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>输出部分</t>
   </si>
@@ -187,6 +187,15 @@
   </si>
   <si>
     <t>CD</t>
+  </si>
+  <si>
+    <t>P3^4</t>
+  </si>
+  <si>
+    <t>sensorPositon</t>
+  </si>
+  <si>
+    <t>机械臂位置传感器</t>
   </si>
 </sst>
 </file>
@@ -579,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C23"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -665,149 +674,160 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="5" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="7" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>56</v>
       </c>
     </row>

--- a/接口定义.xlsx
+++ b/接口定义.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>输出部分</t>
   </si>
@@ -84,18 +84,12 @@
     <t>P2^0</t>
   </si>
   <si>
-    <t>机械臂向进口移动电机</t>
-  </si>
-  <si>
     <t xml:space="preserve">MotorLeft </t>
   </si>
   <si>
     <t>P2^1</t>
   </si>
   <si>
-    <t>机械臂向出口移动电机</t>
-  </si>
-  <si>
     <t xml:space="preserve">MotorRight </t>
   </si>
   <si>
@@ -196,13 +190,37 @@
   </si>
   <si>
     <t>机械臂位置传感器</t>
+  </si>
+  <si>
+    <t>机械臂向进口移动电机（正常速度）</t>
+  </si>
+  <si>
+    <t>机械臂向出口移动电机（正常速度）</t>
+  </si>
+  <si>
+    <t>P1^3</t>
+  </si>
+  <si>
+    <t>P1^4</t>
+  </si>
+  <si>
+    <t>机械臂向进口移动电机（慢度）</t>
+  </si>
+  <si>
+    <t>机械臂向出口移动电机（慢度）</t>
+  </si>
+  <si>
+    <t>MotorLeft Slow</t>
+  </si>
+  <si>
+    <t>MotorRight Slow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +235,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -276,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -287,6 +314,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,17 +618,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -676,13 +706,13 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="C8" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -697,138 +727,160 @@
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>35</v>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/接口定义.xlsx
+++ b/接口定义.xlsx
@@ -210,10 +210,10 @@
     <t>机械臂向出口移动电机（慢度）</t>
   </si>
   <si>
-    <t>MotorLeft Slow</t>
-  </si>
-  <si>
-    <t>MotorRight Slow</t>
+    <t>MotorLeftSlow</t>
+  </si>
+  <si>
+    <t>MotorRightSlow</t>
   </si>
 </sst>
 </file>
@@ -621,7 +621,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/接口定义.xlsx
+++ b/接口定义.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>输出部分</t>
   </si>
@@ -114,9 +114,6 @@
     <t>P1^2</t>
   </si>
   <si>
-    <t>出口到进口空槽机械臂加速</t>
-  </si>
-  <si>
     <t xml:space="preserve">MotorSpeedUp </t>
   </si>
   <si>
@@ -201,26 +198,20 @@
     <t>P1^3</t>
   </si>
   <si>
-    <t>P1^4</t>
-  </si>
-  <si>
-    <t>机械臂向进口移动电机（慢度）</t>
-  </si>
-  <si>
-    <t>机械臂向出口移动电机（慢度）</t>
-  </si>
-  <si>
-    <t>MotorLeftSlow</t>
-  </si>
-  <si>
-    <t>MotorRightSlow</t>
+    <t>辅助输出（电机加速）</t>
+  </si>
+  <si>
+    <t>辅助输出（电机减速）</t>
+  </si>
+  <si>
+    <t>MotorSlowDown</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,17 +228,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,6 +272,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -303,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -314,9 +302,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -706,13 +693,13 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -727,7 +714,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>22</v>
@@ -738,7 +725,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>24</v>
@@ -767,120 +754,109 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="9" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/接口定义.xlsx
+++ b/接口定义.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>输出部分</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>MotorSlowDown</t>
+  </si>
+  <si>
+    <t>P1^4</t>
+  </si>
+  <si>
+    <t>SystemError</t>
+  </si>
+  <si>
+    <t>系统出错指示灯</t>
   </si>
 </sst>
 </file>
@@ -291,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -302,7 +311,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -605,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -754,108 +762,119 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="7" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>53</v>
       </c>
     </row>

--- a/接口定义.xlsx
+++ b/接口定义.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>输出部分</t>
   </si>
@@ -48,39 +48,21 @@
     <t>P3^0</t>
   </si>
   <si>
-    <t>进口位置感应</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sensorInput </t>
-  </si>
-  <si>
     <t>P3^1</t>
   </si>
   <si>
-    <t>机械臂在顶端位置感应</t>
-  </si>
-  <si>
     <t xml:space="preserve">sensorManiTop </t>
   </si>
   <si>
     <t>P3^2</t>
   </si>
   <si>
-    <t>机械臂在低端位置感应</t>
-  </si>
-  <si>
     <t xml:space="preserve">sensorManiBut </t>
   </si>
   <si>
     <t>P3^3</t>
   </si>
   <si>
-    <t>出位置感应</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sensorOutput </t>
-  </si>
-  <si>
     <t>P2^0</t>
   </si>
   <si>
@@ -183,12 +165,6 @@
     <t>P3^4</t>
   </si>
   <si>
-    <t>sensorPositon</t>
-  </si>
-  <si>
-    <t>机械臂位置传感器</t>
-  </si>
-  <si>
     <t>机械臂向进口移动电机（正常速度）</t>
   </si>
   <si>
@@ -210,10 +186,70 @@
     <t>P1^4</t>
   </si>
   <si>
-    <t>SystemError</t>
-  </si>
-  <si>
-    <t>系统出错指示灯</t>
+    <t>P1^7</t>
+  </si>
+  <si>
+    <t>P3^5</t>
+  </si>
+  <si>
+    <t>P3^6</t>
+  </si>
+  <si>
+    <t>P3^7</t>
+  </si>
+  <si>
+    <t>一号槽位置感应器</t>
+  </si>
+  <si>
+    <t>进口位置感应器</t>
+  </si>
+  <si>
+    <t>机械臂在低端位置感应器</t>
+  </si>
+  <si>
+    <t>机械臂在顶端位置感应器</t>
+  </si>
+  <si>
+    <t>出口位置感应</t>
+  </si>
+  <si>
+    <t>二号槽位置感应器</t>
+  </si>
+  <si>
+    <t>三号槽位置感应器</t>
+  </si>
+  <si>
+    <t>四号槽位置感应器</t>
+  </si>
+  <si>
+    <t>五号槽位置感应器</t>
+  </si>
+  <si>
+    <t>六号槽位置感应器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensorPositionInput </t>
+  </si>
+  <si>
+    <t>sensorPositionOutput</t>
+  </si>
+  <si>
+    <t>sensorPositon1</t>
+  </si>
+  <si>
+    <t>sensorPositon2</t>
+  </si>
+  <si>
+    <t>sensorPositon3</t>
+  </si>
+  <si>
+    <t>sensorPositon4</t>
+  </si>
+  <si>
+    <t>sensorPositon5</t>
+  </si>
+  <si>
+    <t>sensorPositon6</t>
   </si>
 </sst>
 </file>
@@ -238,7 +274,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,12 +317,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -300,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -311,7 +341,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -635,247 +664,291 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>55</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="A15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>64</v>
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>44</v>
-      </c>
+      <c r="A23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>53</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/接口定义.xlsx
+++ b/接口定义.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>输出部分</t>
   </si>
@@ -48,21 +48,39 @@
     <t>P3^0</t>
   </si>
   <si>
+    <t>进口位置感应</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensorInput </t>
+  </si>
+  <si>
     <t>P3^1</t>
   </si>
   <si>
+    <t>机械臂在顶端位置感应</t>
+  </si>
+  <si>
     <t xml:space="preserve">sensorManiTop </t>
   </si>
   <si>
     <t>P3^2</t>
   </si>
   <si>
+    <t>机械臂在低端位置感应</t>
+  </si>
+  <si>
     <t xml:space="preserve">sensorManiBut </t>
   </si>
   <si>
     <t>P3^3</t>
   </si>
   <si>
+    <t>出位置感应</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensorOutput </t>
+  </si>
+  <si>
     <t>P2^0</t>
   </si>
   <si>
@@ -165,6 +183,12 @@
     <t>P3^4</t>
   </si>
   <si>
+    <t>sensorPositon</t>
+  </si>
+  <si>
+    <t>机械臂位置传感器</t>
+  </si>
+  <si>
     <t>机械臂向进口移动电机（正常速度）</t>
   </si>
   <si>
@@ -186,70 +210,10 @@
     <t>P1^4</t>
   </si>
   <si>
-    <t>P1^7</t>
-  </si>
-  <si>
-    <t>P3^5</t>
-  </si>
-  <si>
-    <t>P3^6</t>
-  </si>
-  <si>
-    <t>P3^7</t>
-  </si>
-  <si>
-    <t>一号槽位置感应器</t>
-  </si>
-  <si>
-    <t>进口位置感应器</t>
-  </si>
-  <si>
-    <t>机械臂在低端位置感应器</t>
-  </si>
-  <si>
-    <t>机械臂在顶端位置感应器</t>
-  </si>
-  <si>
-    <t>出口位置感应</t>
-  </si>
-  <si>
-    <t>二号槽位置感应器</t>
-  </si>
-  <si>
-    <t>三号槽位置感应器</t>
-  </si>
-  <si>
-    <t>四号槽位置感应器</t>
-  </si>
-  <si>
-    <t>五号槽位置感应器</t>
-  </si>
-  <si>
-    <t>六号槽位置感应器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sensorPositionInput </t>
-  </si>
-  <si>
-    <t>sensorPositionOutput</t>
-  </si>
-  <si>
-    <t>sensorPositon1</t>
-  </si>
-  <si>
-    <t>sensorPositon2</t>
-  </si>
-  <si>
-    <t>sensorPositon3</t>
-  </si>
-  <si>
-    <t>sensorPositon4</t>
-  </si>
-  <si>
-    <t>sensorPositon5</t>
-  </si>
-  <si>
-    <t>sensorPositon6</t>
+    <t>SystemError</t>
+  </si>
+  <si>
+    <t>系统出错指示灯</t>
   </si>
 </sst>
 </file>
@@ -274,7 +238,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +281,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -330,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -341,6 +311,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -664,291 +635,247 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="A10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="C11" s="9" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C12" s="9" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>71</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>21</v>
+      <c r="A17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="A19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>54</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+      <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
